--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H2">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50463587512244</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N2">
-        <v>1.50463587512244</v>
+        <v>5.626702</v>
       </c>
       <c r="O2">
-        <v>0.9059785099995814</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P2">
-        <v>0.9059785099995814</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q2">
-        <v>1.455270042164141</v>
+        <v>0.1638539385637778</v>
       </c>
       <c r="R2">
-        <v>1.455270042164141</v>
+        <v>1.474685447074</v>
       </c>
       <c r="S2">
-        <v>0.9059785099995814</v>
+        <v>0.0527577682205043</v>
       </c>
       <c r="T2">
-        <v>0.9059785099995814</v>
+        <v>0.06962791497945958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.262087</v>
+      </c>
+      <c r="I3">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J3">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.010998</v>
+      </c>
+      <c r="N3">
+        <v>0.032994</v>
+      </c>
+      <c r="O3">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P3">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q3">
+        <v>0.0009608109420000001</v>
+      </c>
+      <c r="R3">
+        <v>0.008647298478000002</v>
+      </c>
+      <c r="S3">
+        <v>0.0003093623590990457</v>
+      </c>
+      <c r="T3">
+        <v>0.0004082859598450903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.262087</v>
+      </c>
+      <c r="I4">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J4">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.163866</v>
+      </c>
+      <c r="N4">
+        <v>0.327732</v>
+      </c>
+      <c r="O4">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P4">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q4">
+        <v>0.014315716114</v>
+      </c>
+      <c r="R4">
+        <v>0.085894296684</v>
+      </c>
+      <c r="S4">
+        <v>0.004609381008922006</v>
+      </c>
+      <c r="T4">
+        <v>0.004055536588226682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.052732</v>
+      </c>
+      <c r="I5">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J5">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.626702</v>
+      </c>
+      <c r="O5">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P5">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q5">
+        <v>0.6581565833182222</v>
+      </c>
+      <c r="R5">
+        <v>5.923409249864</v>
+      </c>
+      <c r="S5">
+        <v>0.2119135663131247</v>
+      </c>
+      <c r="T5">
+        <v>0.2796763448479186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.052732</v>
+      </c>
+      <c r="I6">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J6">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.010998</v>
+      </c>
+      <c r="N6">
+        <v>0.032994</v>
+      </c>
+      <c r="O6">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P6">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q6">
+        <v>0.003859315512</v>
+      </c>
+      <c r="R6">
+        <v>0.034733839608</v>
+      </c>
+      <c r="S6">
+        <v>0.001242624224089926</v>
+      </c>
+      <c r="T6">
+        <v>0.001639973348848442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.052732</v>
+      </c>
+      <c r="I7">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J7">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.163866</v>
+      </c>
+      <c r="N7">
+        <v>0.327732</v>
+      </c>
+      <c r="O7">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P7">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q7">
+        <v>0.057502327304</v>
+      </c>
+      <c r="R7">
+        <v>0.345013963824</v>
+      </c>
+      <c r="S7">
+        <v>0.01851462639613747</v>
+      </c>
+      <c r="T7">
+        <v>0.0162899844082196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="H3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="N3">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="O3">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="P3">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="Q3">
-        <v>0.1510263833049504</v>
-      </c>
-      <c r="R3">
-        <v>0.1510263833049504</v>
-      </c>
-      <c r="S3">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="T3">
-        <v>0.09402149000041862</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.209003</v>
+      </c>
+      <c r="I8">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J8">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.626702</v>
+      </c>
+      <c r="O8">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P8">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q8">
+        <v>0.1306663997895556</v>
+      </c>
+      <c r="R8">
+        <v>1.175997598106</v>
+      </c>
+      <c r="S8">
+        <v>0.04207202887358037</v>
+      </c>
+      <c r="T8">
+        <v>0.055525238239409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.209003</v>
+      </c>
+      <c r="I9">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J9">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.010998</v>
+      </c>
+      <c r="N9">
+        <v>0.032994</v>
+      </c>
+      <c r="O9">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P9">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q9">
+        <v>0.0007662049980000001</v>
+      </c>
+      <c r="R9">
+        <v>0.006895844982</v>
+      </c>
+      <c r="S9">
+        <v>0.0002467030457015337</v>
+      </c>
+      <c r="T9">
+        <v>0.0003255903210212769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.209003</v>
+      </c>
+      <c r="I10">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J10">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.163866</v>
+      </c>
+      <c r="N10">
+        <v>0.327732</v>
+      </c>
+      <c r="O10">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P10">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q10">
+        <v>0.011416161866</v>
+      </c>
+      <c r="R10">
+        <v>0.068496971196</v>
+      </c>
+      <c r="S10">
+        <v>0.003675781168114886</v>
+      </c>
+      <c r="T10">
+        <v>0.003234114296203708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.0067545</v>
+      </c>
+      <c r="H11">
+        <v>2.013509</v>
+      </c>
+      <c r="I11">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J11">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.626702</v>
+      </c>
+      <c r="O11">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P11">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q11">
+        <v>1.888235852886333</v>
+      </c>
+      <c r="R11">
+        <v>11.329415117318</v>
+      </c>
+      <c r="S11">
+        <v>0.6079750681943364</v>
+      </c>
+      <c r="T11">
+        <v>0.5349232638870934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.0067545</v>
+      </c>
+      <c r="H12">
+        <v>2.013509</v>
+      </c>
+      <c r="I12">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J12">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.010998</v>
+      </c>
+      <c r="N12">
+        <v>0.032994</v>
+      </c>
+      <c r="O12">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P12">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q12">
+        <v>0.011072285991</v>
+      </c>
+      <c r="R12">
+        <v>0.066433715946</v>
+      </c>
+      <c r="S12">
+        <v>0.003565059852113003</v>
+      </c>
+      <c r="T12">
+        <v>0.003136696801908252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.0067545</v>
+      </c>
+      <c r="H13">
+        <v>2.013509</v>
+      </c>
+      <c r="I13">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J13">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.163866</v>
+      </c>
+      <c r="N13">
+        <v>0.327732</v>
+      </c>
+      <c r="O13">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P13">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q13">
+        <v>0.164972832897</v>
+      </c>
+      <c r="R13">
+        <v>0.6598913315880001</v>
+      </c>
+      <c r="S13">
+        <v>0.05311803034427617</v>
+      </c>
+      <c r="T13">
+        <v>0.03115705632184625</v>
       </c>
     </row>
   </sheetData>
